--- a/Documentacion/Porody doc eng.xlsx
+++ b/Documentacion/Porody doc eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seido\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seido\DataGripProjects\Porodnictví\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542DF1C-8D77-4110-9F31-E97EED87679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD64A122-81EC-471E-97EB-AB9BDEF85840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{6A12313B-1AAA-42C1-AAE8-3D81512C9F35}"/>
   </bookViews>
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9066B8F3-55AC-4F9D-B970-795E63557B0C}">
   <dimension ref="A2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
